--- a/开发文档/服务器数据结构.xlsx
+++ b/开发文档/服务器数据结构.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpc\OneDrive\Desktop\WTR开发文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\WTU-Cloud\开发文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C725C1F-14BE-468C-A7E8-36232BA3C3E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538C25BE-84D5-46C7-BD34-91A41A7482CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="689" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="689" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APP_SYSTEM" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="224">
   <si>
     <t>字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,10 +412,6 @@
   </si>
   <si>
     <t>非空，对应部门的MID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0是最低等级，9表示软件管理员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -915,11 +911,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>删除用户时，同时删除用户信息
-增加用户时，自动新建用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SUMPEO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -938,6 +929,20 @@
   </si>
   <si>
     <t>对应PEO触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除用户时，同时删除用户信息
+删除用户时，同时删除ORGP信息
+增加用户时，自动新建用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0是最低等级，999表示软件管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加、删除、修改同时修改User权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1022,6 +1027,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1034,41 +1048,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="28">
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1115,6 +1099,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1128,6 +1118,21 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1179,10 +1184,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5342C26-08A9-4EB5-964B-7936E8F60E42}" name="表2" displayName="表2" ref="B3:G25" totalsRowShown="0">
   <autoFilter ref="B3:G25" xr:uid="{F90A7C68-92B9-4247-A6BB-EEF6923D88ED}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BA866134-6B62-4E6C-939F-E3BCB46BE773}" name="字段" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{64B5D520-48A7-4A5F-8964-497E3E02BF2A}" name="类型" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{5BB8205A-F037-4B33-B90A-D6251156E573}" name="名称" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{9823939D-713D-4866-ACEE-C7917E95324F}" name="说明" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{BA866134-6B62-4E6C-939F-E3BCB46BE773}" name="字段" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{64B5D520-48A7-4A5F-8964-497E3E02BF2A}" name="类型" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{5BB8205A-F037-4B33-B90A-D6251156E573}" name="名称" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{9823939D-713D-4866-ACEE-C7917E95324F}" name="说明" dataDxfId="23"/>
     <tableColumn id="5" xr3:uid="{6B91B940-8992-4B67-B4A5-7A4CBC1518DE}" name="定义"/>
     <tableColumn id="6" xr3:uid="{18988827-EFE8-429B-A235-4893A8DFB99B}" name="触发"/>
   </tableColumns>
@@ -1206,29 +1211,29 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{86978157-297C-4342-8028-52A17A7BE9B7}" name="表6" displayName="表6" ref="A3:F8" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{86978157-297C-4342-8028-52A17A7BE9B7}" name="表6" displayName="表6" ref="A3:F8" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A3:F8" xr:uid="{9C4CCBAC-3C71-4EAA-AA48-EE9BA22316CA}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B9F32743-1DBC-40BC-AFE8-2DA0A6CA7B1E}" name="字段" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{1A13A834-AFDF-452E-B62B-296B02AA4C54}" name="类型" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{062852FA-F86C-4345-911E-20633342F2A5}" name="名称" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{24E0418E-79ED-4AF8-9FF5-FA5B5E3B4A7B}" name="说明" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{7269801A-7760-4FBD-9FD4-8397B7FCCBF4}" name="定义" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{0C9035EB-DA97-40A0-8A0C-2F3DFE374128}" name="触发" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B9F32743-1DBC-40BC-AFE8-2DA0A6CA7B1E}" name="字段" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{1A13A834-AFDF-452E-B62B-296B02AA4C54}" name="类型" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{062852FA-F86C-4345-911E-20633342F2A5}" name="名称" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{24E0418E-79ED-4AF8-9FF5-FA5B5E3B4A7B}" name="说明" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{7269801A-7760-4FBD-9FD4-8397B7FCCBF4}" name="定义" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{0C9035EB-DA97-40A0-8A0C-2F3DFE374128}" name="触发" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8E9FA21B-C2F1-4043-9ACC-5F8B41BD43BF}" name="表7" displayName="表7" ref="A3:F8" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8E9FA21B-C2F1-4043-9ACC-5F8B41BD43BF}" name="表7" displayName="表7" ref="A3:F8" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A3:F8" xr:uid="{4C795271-0E6D-4A14-8AB1-C44328012FAA}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3B89A4D8-85E1-4462-93F3-478AB1997AC4}" name="字段" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{2080A574-EEF4-42B6-BE2E-6D59870E342F}" name="类型" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{20707827-F0B5-46B9-B05D-6B2562914852}" name="名称" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{6C74C2F7-B54A-4828-855A-84058C6C71DA}" name="说明" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{A80AE548-4656-4069-A61E-FECB2613DC8D}" name="定义" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{3B89A4D8-85E1-4462-93F3-478AB1997AC4}" name="字段" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{2080A574-EEF4-42B6-BE2E-6D59870E342F}" name="类型" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{20707827-F0B5-46B9-B05D-6B2562914852}" name="名称" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{6C74C2F7-B54A-4828-855A-84058C6C71DA}" name="说明" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{A80AE548-4656-4069-A61E-FECB2613DC8D}" name="定义" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{1C6E1EEA-CFC4-41D2-BAF1-9FDE8D19A4BD}" name="触发"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1236,7 +1241,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0E5EC863-0AB3-418D-9F29-D22157DD541A}" name="表8" displayName="表8" ref="A3:F9" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0E5EC863-0AB3-418D-9F29-D22157DD541A}" name="表8" displayName="表8" ref="A3:F9" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A3:F9" xr:uid="{97EB45C9-7AF9-4671-AB61-0E6A9769A731}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{47C1A306-D5F1-4B40-90AC-67E7B74B32A7}" name="字段"/>
@@ -1251,13 +1256,13 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{64C10844-16DF-4537-B306-9438AAB776AE}" name="表9" displayName="表9" ref="A3:F10" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{64C10844-16DF-4537-B306-9438AAB776AE}" name="表9" displayName="表9" ref="A3:F10" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A3:F10" xr:uid="{290A1B80-64A0-44CE-B0D8-CA71B9BE4789}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0D233D71-6BB4-4C1A-8C59-2C3819F67FB4}" name="字段" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{8DE4E9CE-2E16-4ED1-81FC-384E85713DE2}" name="类型" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{6217F7BA-D29B-489E-A776-7F4F799243E3}" name="名称" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{E0CC29A3-7A3C-472D-93FF-1E13D79D2021}" name="说明" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{0D233D71-6BB4-4C1A-8C59-2C3819F67FB4}" name="字段" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{8DE4E9CE-2E16-4ED1-81FC-384E85713DE2}" name="类型" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{6217F7BA-D29B-489E-A776-7F4F799243E3}" name="名称" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{E0CC29A3-7A3C-472D-93FF-1E13D79D2021}" name="说明" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{20FF736B-58EC-4FC3-8691-70C51A1669BD}" name="定义"/>
     <tableColumn id="6" xr3:uid="{E10E8D08-AAE6-4A1B-BBAF-45ECE2A03F3B}" name="触发"/>
   </tableColumns>
@@ -1266,7 +1271,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{FA40F411-76B1-4F9E-AC2F-38439B4B99CA}" name="表10" displayName="表10" ref="A3:F13" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{FA40F411-76B1-4F9E-AC2F-38439B4B99CA}" name="表10" displayName="表10" ref="A3:F13" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A3:F13" xr:uid="{DCA1AC74-7592-4DF4-8AE2-CD8B84D21E4E}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DD7CD8A2-3786-466A-8DF3-5F8AE946AE10}" name="字段"/>
@@ -1555,24 +1560,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="A1" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -1591,18 +1596,18 @@
         <v>29</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
         <v>93</v>
@@ -1610,13 +1615,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1630,7 +1635,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1638,13 +1643,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1667,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1682,24 +1687,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1718,10 +1723,10 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1737,8 +1742,8 @@
       <c r="E4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>217</v>
+      <c r="F4" s="9" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1752,7 +1757,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
@@ -1763,16 +1768,16 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
       </c>
       <c r="E6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" t="s">
         <v>214</v>
-      </c>
-      <c r="F6" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1797,7 +1802,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -1806,7 +1811,7 @@
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1878,19 +1883,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1926,30 +1931,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="A2" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>192</v>
+      <c r="A3" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -1967,12 +1972,12 @@
         <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>193</v>
+      <c r="A4" s="13" t="s">
+        <v>192</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -1988,7 +1993,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="5" t="s">
         <v>35</v>
       </c>
@@ -1999,37 +2004,37 @@
         <v>36</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>194</v>
+      <c r="A6" s="12" t="s">
+        <v>193</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="5" t="s">
         <v>38</v>
       </c>
@@ -2040,11 +2045,11 @@
         <v>39</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="5" t="s">
         <v>40</v>
       </c>
@@ -2059,7 +2064,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="5" t="s">
         <v>45</v>
       </c>
@@ -2070,12 +2075,12 @@
         <v>46</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>195</v>
+      <c r="A10" s="13" t="s">
+        <v>194</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>43</v>
@@ -2087,11 +2092,11 @@
         <v>44</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="5" t="s">
         <v>47</v>
       </c>
@@ -2102,27 +2107,27 @@
         <v>47</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="E12" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>196</v>
+      <c r="A13" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>48</v>
@@ -2138,7 +2143,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="5" t="s">
         <v>50</v>
       </c>
@@ -2150,7 +2155,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="5" t="s">
         <v>53</v>
       </c>
@@ -2162,7 +2167,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="5" t="s">
         <v>55</v>
       </c>
@@ -2174,8 +2179,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>197</v>
+      <c r="A17" s="13" t="s">
+        <v>196</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>59</v>
@@ -2191,7 +2196,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="5" t="s">
         <v>61</v>
       </c>
@@ -2206,7 +2211,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="5" t="s">
         <v>64</v>
       </c>
@@ -2221,93 +2226,93 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>198</v>
+      <c r="A22" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="5" t="s">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="5" t="s">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2346,24 +2351,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2382,7 +2387,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2390,7 +2395,7 @@
         <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -2516,28 +2521,28 @@
     <col min="2" max="3" width="8.6640625" style="4"/>
     <col min="4" max="4" width="21.25" style="4" customWidth="1"/>
     <col min="5" max="5" width="20.58203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.58203125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="20.58203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -2555,8 +2560,8 @@
       <c r="E3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>190</v>
+      <c r="F3" s="8" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28" x14ac:dyDescent="0.3">
@@ -2564,7 +2569,7 @@
         <v>92</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>82</v>
@@ -2572,7 +2577,7 @@
       <c r="D4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="9" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2606,33 +2611,33 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>222</v>
+      <c r="F7" s="9" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2652,8 +2657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65A12B3-9F95-421E-98AF-22B1A2AF8E3A}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2666,24 +2671,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -2702,7 +2707,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -2720,7 +2725,7 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2756,30 +2761,33 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2812,24 +2820,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="A1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -2848,18 +2856,18 @@
         <v>29</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
         <v>118</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>119</v>
-      </c>
-      <c r="C4" t="s">
-        <v>120</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2867,30 +2875,30 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -2898,41 +2906,41 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" t="s">
         <v>128</v>
-      </c>
-      <c r="B8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" t="s">
-        <v>129</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -2970,24 +2978,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="A1" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -3006,18 +3014,18 @@
         <v>29</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>93</v>
@@ -3025,98 +3033,98 @@
     </row>
     <row r="5" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3149,24 +3157,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="A1" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -3185,24 +3193,24 @@
         <v>29</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
         <v>93</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -3216,7 +3224,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -3241,109 +3249,109 @@
         <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" t="s">
         <v>173</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>174</v>
-      </c>
-      <c r="E8" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" t="s">
         <v>178</v>
-      </c>
-      <c r="E9" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
         <v>180</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>181</v>
-      </c>
       <c r="D10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" t="s">
         <v>178</v>
-      </c>
-      <c r="E10" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
         <v>183</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>184</v>
-      </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
         <v>185</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>186</v>
-      </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
         <v>187</v>
       </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>188</v>
-      </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/开发文档/服务器数据结构.xlsx
+++ b/开发文档/服务器数据结构.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\WTU-Cloud\开发文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538C25BE-84D5-46C7-BD34-91A41A7482CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B051D6C0-BA89-4578-B6B2-A4A62020A1D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="689" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="689" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APP_SYSTEM" sheetId="8" r:id="rId1"/>
@@ -875,10 +875,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>READ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已经阅读的公告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -943,6 +939,10 @@
   </si>
   <si>
     <t>增加、删除、修改同时修改User权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>READSUM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1672,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1743,7 +1743,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1768,16 +1768,16 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
       </c>
       <c r="E6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" t="s">
         <v>213</v>
-      </c>
-      <c r="F6" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1811,7 +1811,7 @@
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1883,19 +1883,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2010,7 +2010,7 @@
         <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="42" x14ac:dyDescent="0.3">
@@ -2395,7 +2395,7 @@
         <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -2569,7 +2569,7 @@
         <v>92</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>82</v>
@@ -2611,19 +2611,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.3">
@@ -2657,7 +2657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65A12B3-9F95-421E-98AF-22B1A2AF8E3A}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2773,7 +2773,7 @@
         <v>100</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -3210,7 +3210,7 @@
         <v>93</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">

--- a/开发文档/服务器数据结构.xlsx
+++ b/开发文档/服务器数据结构.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\WTU-Cloud\开发文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B051D6C0-BA89-4578-B6B2-A4A62020A1D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED5BFF5-68B9-4367-B780-AF77E3609DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="689" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="689" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APP_SYSTEM" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="226">
   <si>
     <t>字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -899,14 +899,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对应详情触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时，添加对用户表的触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SUMPEO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -943,6 +935,22 @@
   </si>
   <si>
     <t>READSUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时，添加对用户信息表的触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应触发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -975,7 +983,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -994,6 +1002,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1007,7 +1021,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1046,6 +1060,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1166,8 +1183,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9EA8C86A-F108-4680-8152-C311A289D630}" name="表5" displayName="表5" ref="A3:F14" totalsRowShown="0">
-  <autoFilter ref="A3:F14" xr:uid="{ACB726CD-FF17-4940-AEAD-0FC4E970B2E4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9EA8C86A-F108-4680-8152-C311A289D630}" name="表5" displayName="表5" ref="A3:F13" totalsRowShown="0">
+  <autoFilter ref="A3:F13" xr:uid="{ACB726CD-FF17-4940-AEAD-0FC4E970B2E4}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{58BA8AAF-5C15-41D3-BFC2-453F67AEFA86}" name="字段"/>
     <tableColumn id="2" xr3:uid="{0E038DDB-7CCF-4819-997D-086263EAC22E}" name="类型"/>
@@ -1181,8 +1198,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5342C26-08A9-4EB5-964B-7936E8F60E42}" name="表2" displayName="表2" ref="B3:G25" totalsRowShown="0">
-  <autoFilter ref="B3:G25" xr:uid="{F90A7C68-92B9-4247-A6BB-EEF6923D88ED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5342C26-08A9-4EB5-964B-7936E8F60E42}" name="表2" displayName="表2" ref="B3:G27" totalsRowShown="0">
+  <autoFilter ref="B3:G27" xr:uid="{F90A7C68-92B9-4247-A6BB-EEF6923D88ED}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{BA866134-6B62-4E6C-939F-E3BCB46BE773}" name="字段" dataDxfId="26"/>
     <tableColumn id="2" xr3:uid="{64B5D520-48A7-4A5F-8964-497E3E02BF2A}" name="类型" dataDxfId="25"/>
@@ -1670,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1743,7 +1760,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1777,7 +1794,7 @@
         <v>212</v>
       </c>
       <c r="F6" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1811,7 +1828,7 @@
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1844,58 +1861,50 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>221</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>207</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="F13" t="s">
         <v>223</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>207</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1914,10 +1923,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20CC69D-F393-4F3D-8FAB-DB60B41B70FE}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1992,7 +2001,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="5" t="s">
         <v>35</v>
@@ -2010,7 +2019,7 @@
         <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="42" x14ac:dyDescent="0.3">
@@ -2315,8 +2324,41 @@
         <v>116</v>
       </c>
     </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A1:G1"/>
@@ -2611,19 +2653,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.3">
@@ -2725,7 +2767,7 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2773,7 +2815,7 @@
         <v>100</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -3210,7 +3252,7 @@
         <v>93</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
